--- a/Documents/Phase de Transition/Cahier de Tests.xlsx
+++ b/Documents/Phase de Transition/Cahier de Tests.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="-20" windowWidth="21600" windowHeight="14660" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25440" windowHeight="14580" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,35 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="39">
+  <si>
+    <t>Cliquer sur le menu déroulant Simulation. Cliquer sur l'entrée du menu permettant de charger une carte. Choisir une carte dans le système de fichiers, puis valider. Constater son chargement.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fonctionnalité non implémentée.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fonctionnalité non implémentée.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vitesse de la simulation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cliquer sur le bouton permettant d'ajouter un type de robot. Entrer des valeurs arbitraires, puis valider. Glisser-déposer le nouveau type de robot sur la carte. Constater qu'il s'exécute correctement.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sélectionner un type de robot. Cliquer sur le bouton permettant de le modifier. Changer son algorithme de déplacement, puis valider. Modifier à nouveau le type de robot. Constater que le nouvel algortihme choisit appraît bien dans la boite de sélection correspondante.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sélectionner un type de robot. Cliquer sur le bouton permettant de le supprimer. Constater sa disparition de la liste.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>Modification d'un type de robot</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -64,10 +92,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Réaliser la simulation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Initier l'application</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -80,15 +104,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Lancer la simulation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Junit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Terminer la simulation</t>
+    <t>Charger une carte</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -137,6 +153,26 @@
   </si>
   <si>
     <t>Création d'un type de robot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cliquer sur le bouton permettant d'augmenter la vitesse d'éxécution. Constater le changement.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cliquer sur le bouton permettant de réduire la vitesse d'éxécution. Constater le changement.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N/A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -172,7 +208,7 @@
       <name val="Verdana"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -183,11 +219,6 @@
       <patternFill patternType="solid">
         <fgColor indexed="22"/>
         <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="darkDown">
-        <fgColor indexed="22"/>
       </patternFill>
     </fill>
     <fill>
@@ -203,50 +234,25 @@
         <fgColor indexed="22"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="11"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="53"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="9">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -329,141 +335,149 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -797,374 +811,399 @@
   <sheetPr published="0" enableFormatConditionsCalculation="0">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="B2:F39"/>
+  <dimension ref="B2:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" customWidth="1"/>
-    <col min="2" max="2" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.28515625" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" customWidth="1"/>
+    <col min="1" max="1" width="5.28515625" style="37" customWidth="1"/>
+    <col min="2" max="2" width="26.5703125" style="37" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" style="37" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.28515625" style="37" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="37" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" style="37" customWidth="1"/>
+    <col min="7" max="16384" width="10.7109375" style="37"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6">
-      <c r="B2" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="33"/>
+      <c r="B2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="3"/>
     </row>
     <row r="3" spans="2:6">
-      <c r="B3" s="8"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="10"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="6"/>
     </row>
     <row r="4" spans="2:6" ht="26" customHeight="1">
-      <c r="B4" s="34"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="36"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="9"/>
     </row>
     <row r="5" spans="2:6" ht="21" customHeight="1">
-      <c r="B5" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" s="31" t="s">
-        <v>19</v>
+      <c r="B5" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="11"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
       <c r="E6" s="13"/>
       <c r="F6" s="14"/>
     </row>
     <row r="7" spans="2:6">
-      <c r="B7" s="11"/>
+      <c r="B7" s="38"/>
       <c r="C7" s="39"/>
       <c r="D7" s="39"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="15"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="41"/>
     </row>
     <row r="8" spans="2:6">
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="7"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="9"/>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="17"/>
-    </row>
-    <row r="9" spans="2:6">
-      <c r="B9" s="18"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="20"/>
-    </row>
-    <row r="10" spans="2:6">
-      <c r="B10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="3" t="s">
+      <c r="D10" s="43"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="44"/>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="43"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="44"/>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="43"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="44"/>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="43"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="44"/>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="18"/>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" s="19"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="21"/>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="43"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="44"/>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="43"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="44"/>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="43"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="44"/>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="43"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="44"/>
+    </row>
+    <row r="20" spans="2:6" ht="91">
+      <c r="B20" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="F20" s="46" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" ht="117">
+      <c r="B21" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="38"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="4"/>
-    </row>
-    <row r="11" spans="2:6">
-      <c r="B11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="38"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="4"/>
-    </row>
-    <row r="12" spans="2:6">
-      <c r="B12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="38"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="4"/>
-    </row>
-    <row r="13" spans="2:6">
-      <c r="B13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="38"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="4"/>
-    </row>
-    <row r="14" spans="2:6">
-      <c r="B14" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="22"/>
-    </row>
-    <row r="15" spans="2:6">
-      <c r="B15" s="23"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="25"/>
-    </row>
-    <row r="16" spans="2:6">
-      <c r="B16" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="38"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="4"/>
-    </row>
-    <row r="17" spans="2:6">
-      <c r="B17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" s="38"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="4"/>
-    </row>
-    <row r="18" spans="2:6">
-      <c r="B18" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" s="38"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="4"/>
-    </row>
-    <row r="19" spans="2:6">
-      <c r="B19" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" s="38"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="4"/>
-    </row>
-    <row r="20" spans="2:6">
-      <c r="B20" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="28" t="s">
+      <c r="E21" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="F21" s="46" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="52">
+      <c r="B22" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="4"/>
-    </row>
-    <row r="21" spans="2:6">
-      <c r="B21" s="2" t="s">
+      <c r="E22" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="F22" s="46" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" ht="91">
+      <c r="B23" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="C21" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="4"/>
-    </row>
-    <row r="22" spans="2:6">
-      <c r="B22" s="2" t="s">
+      <c r="E23" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="F23" s="46" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="B24" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="22"/>
+    </row>
+    <row r="25" spans="2:6">
+      <c r="B25" s="23"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="25"/>
+    </row>
+    <row r="26" spans="2:6" ht="52">
+      <c r="B26" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="E26" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="F26" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="4"/>
-    </row>
-    <row r="23" spans="2:6">
-      <c r="B23" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="40"/>
-    </row>
-    <row r="24" spans="2:6">
-      <c r="B24" s="41"/>
-      <c r="C24" s="42"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="43"/>
-    </row>
-    <row r="25" spans="2:6">
-      <c r="B25" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C25" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="4"/>
-    </row>
-    <row r="26" spans="2:6">
-      <c r="B26" s="2" t="s">
+    </row>
+    <row r="27" spans="2:6" ht="39">
+      <c r="B27" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="4"/>
-    </row>
-    <row r="27" spans="2:6">
-      <c r="B27" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C27" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="D27" s="38"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="4"/>
+      <c r="D27" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="E27" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="F27" s="45" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="28" spans="2:6">
-      <c r="B28" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C28" t="s">
-        <v>4</v>
-      </c>
-      <c r="D28" s="38"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="4"/>
+      <c r="B28" s="42"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="42"/>
     </row>
     <row r="29" spans="2:6">
-      <c r="B29" s="2"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="4"/>
+      <c r="B29" s="42"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="42"/>
     </row>
     <row r="30" spans="2:6">
-      <c r="B30" s="2"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="4"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="42"/>
     </row>
     <row r="31" spans="2:6">
-      <c r="B31" s="2"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="4"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="42"/>
     </row>
     <row r="32" spans="2:6">
-      <c r="B32" s="2"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="4"/>
+      <c r="B32" s="42"/>
+      <c r="C32" s="42"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="42"/>
     </row>
     <row r="33" spans="2:6">
-      <c r="B33" s="2"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="4"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="42"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="42"/>
+      <c r="F33" s="42"/>
     </row>
     <row r="34" spans="2:6">
-      <c r="B34" s="2"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="4"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="42"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="42"/>
+      <c r="F34" s="42"/>
     </row>
     <row r="35" spans="2:6">
-      <c r="B35" s="2"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="4"/>
+      <c r="B35" s="42"/>
+      <c r="C35" s="42"/>
+      <c r="D35" s="42"/>
+      <c r="E35" s="42"/>
+      <c r="F35" s="42"/>
     </row>
     <row r="36" spans="2:6">
-      <c r="B36" s="2"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="4"/>
+      <c r="B36" s="42"/>
+      <c r="C36" s="42"/>
+      <c r="D36" s="42"/>
+      <c r="E36" s="42"/>
+      <c r="F36" s="42"/>
     </row>
     <row r="37" spans="2:6">
-      <c r="B37" s="2"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="4"/>
+      <c r="B37" s="42"/>
+      <c r="C37" s="42"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="42"/>
+      <c r="F37" s="42"/>
     </row>
     <row r="38" spans="2:6">
-      <c r="B38" s="2"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="4"/>
-    </row>
-    <row r="39" spans="2:6">
-      <c r="B39" s="5"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="7"/>
+      <c r="B38" s="42"/>
+      <c r="C38" s="42"/>
+      <c r="D38" s="42"/>
+      <c r="E38" s="42"/>
+      <c r="F38" s="42"/>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <mergeCells count="9">
     <mergeCell ref="B14:F15"/>
     <mergeCell ref="D5:D7"/>
     <mergeCell ref="B2:F4"/>
     <mergeCell ref="B8:F9"/>
-    <mergeCell ref="B23:F24"/>
+    <mergeCell ref="B24:F25"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="E5:E7"/>
     <mergeCell ref="F5:F7"/>
@@ -1172,7 +1211,6 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
